--- a/biology/Microbiologie/Acidithiobacillus/Acidithiobacillus.xlsx
+++ b/biology/Microbiologie/Acidithiobacillus/Acidithiobacillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre bactérien Acidithiobacillus est composé de bactéries à Gram négatif de la famille Acidithiobacillaceae incluse dans les Pseudomonadota. Ce sont des bactéries qui jouent un rôle d'importants générateurs de drainage minier acide ce qui pose un problème environnemental majeur dans le monde dans le secteur minier.
 </t>
@@ -513,12 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres[1]. Son étymologie est la suivante : A.ci.di.thi.o.ba.cil’lus. L. masc. adj. acidus, acide; Gr. neut. n. theîon, soufre; L. masc. n. bacillus, bacille; N.L. masc. n. Acidithiobacillus, le bacille aimant l'acide et le soufre[1],[2].
-Historique
-En 2000, quatre espèces bactériennes faisant partie des Thiobacillus ont été déplacées dans ce nouveau genre à la suite d'un réexamen de leurs caractéristiques biochimiques montrant qu'elles se distinguaient nettement d'autres Thiobacillus[1]. Acidithiobacillus a d'abord été classé en 2005 dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S[3],[4]. De nouvelles analyses phylogénétiques multiprotéines ont été ajoutées et ont permis de créer la classe des Acidithiobacillia en 2013 parmi les Pseudomonadota[5],[6]. À l'occasion de cette caractérisation, l'ordre des Acidithiobacillales a été déplacé de la classe Gammaproteobacteria vers la nouvelle classe Acidithiobacillia ainsi que les familles et genres la composant[5].
-Liste des espèces
-Selon la LPSN  (17 août 2022)[7] :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres. Son étymologie est la suivante : A.ci.di.thi.o.ba.cil’lus. L. masc. adj. acidus, acide; Gr. neut. n. theîon, soufre; L. masc. n. bacillus, bacille; N.L. masc. n. Acidithiobacillus, le bacille aimant l'acide et le soufre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acidithiobacillus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidithiobacillus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, quatre espèces bactériennes faisant partie des Thiobacillus ont été déplacées dans ce nouveau genre à la suite d'un réexamen de leurs caractéristiques biochimiques montrant qu'elles se distinguaient nettement d'autres Thiobacillus. Acidithiobacillus a d'abord été classé en 2005 dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S,. De nouvelles analyses phylogénétiques multiprotéines ont été ajoutées et ont permis de créer la classe des Acidithiobacillia en 2013 parmi les Pseudomonadota,. À l'occasion de cette caractérisation, l'ordre des Acidithiobacillales a été déplacé de la classe Gammaproteobacteria vers la nouvelle classe Acidithiobacillia ainsi que les familles et genres la composant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acidithiobacillus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidithiobacillus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (17 août 2022) :
 Acidithiobacillus albertensis
 Acidithiobacillus caldus
 Acidithiobacillus ferrianus
